--- a/BBDDClientes.xlsx
+++ b/BBDDClientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaquin.lopez\Documents\UPC\Programacion\Trabajo Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C647F-9E04-43A0-B963-E97D05870476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B88FD4-0C1D-49E8-8752-DA2366FCEF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D7518B8A-8EF3-44DB-A1AA-2D26D35D7875}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
     <sheet name="Pedidos" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pedidos!$A$1:$H$71</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9005" uniqueCount="7342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9005" uniqueCount="7377">
   <si>
     <t>Direccion</t>
   </si>
@@ -22060,6 +22063,111 @@
   </si>
   <si>
     <t>Ventana 1.5 x 2.1 m</t>
+  </si>
+  <si>
+    <t>P0036</t>
+  </si>
+  <si>
+    <t>P0037</t>
+  </si>
+  <si>
+    <t>P0038</t>
+  </si>
+  <si>
+    <t>P0039</t>
+  </si>
+  <si>
+    <t>P0040</t>
+  </si>
+  <si>
+    <t>P0041</t>
+  </si>
+  <si>
+    <t>P0042</t>
+  </si>
+  <si>
+    <t>P0043</t>
+  </si>
+  <si>
+    <t>P0044</t>
+  </si>
+  <si>
+    <t>P0045</t>
+  </si>
+  <si>
+    <t>P0046</t>
+  </si>
+  <si>
+    <t>P0047</t>
+  </si>
+  <si>
+    <t>P0048</t>
+  </si>
+  <si>
+    <t>P0049</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>P0051</t>
+  </si>
+  <si>
+    <t>P0052</t>
+  </si>
+  <si>
+    <t>P0053</t>
+  </si>
+  <si>
+    <t>P0054</t>
+  </si>
+  <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>P0056</t>
+  </si>
+  <si>
+    <t>P0057</t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>P0059</t>
+  </si>
+  <si>
+    <t>P0060</t>
+  </si>
+  <si>
+    <t>P0061</t>
+  </si>
+  <si>
+    <t>P0062</t>
+  </si>
+  <si>
+    <t>P0063</t>
+  </si>
+  <si>
+    <t>P0064</t>
+  </si>
+  <si>
+    <t>P0065</t>
+  </si>
+  <si>
+    <t>P0066</t>
+  </si>
+  <si>
+    <t>P0067</t>
+  </si>
+  <si>
+    <t>P0068</t>
+  </si>
+  <si>
+    <t>P0069</t>
+  </si>
+  <si>
+    <t>P0070</t>
   </si>
 </sst>
 </file>
@@ -22154,7 +22262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -22177,6 +22285,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -51626,7 +51737,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51671,7 +51782,7 @@
         <v>7281</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>3089</v>
       </c>
       <c r="C2" t="s">
         <v>7318</v>
@@ -51694,10 +51805,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7281</v>
+        <v>7282</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>1498</v>
       </c>
       <c r="C3" t="s">
         <v>7318</v>
@@ -51720,10 +51831,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7282</v>
+        <v>7283</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>934</v>
       </c>
       <c r="C4" t="s">
         <v>7319</v>
@@ -51746,10 +51857,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7282</v>
+        <v>7284</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>2223</v>
       </c>
       <c r="C5" t="s">
         <v>7319</v>
@@ -51772,10 +51883,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7283</v>
+        <v>7285</v>
       </c>
       <c r="B6" t="s">
-        <v>2184</v>
+        <v>2018</v>
       </c>
       <c r="C6" t="s">
         <v>7318</v>
@@ -51798,10 +51909,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7283</v>
+        <v>7286</v>
       </c>
       <c r="B7" t="s">
-        <v>2184</v>
+        <v>4218</v>
       </c>
       <c r="C7" t="s">
         <v>7318</v>
@@ -51824,10 +51935,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7284</v>
+        <v>7287</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>2638</v>
       </c>
       <c r="C8" t="s">
         <v>7317</v>
@@ -51850,10 +51961,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7284</v>
+        <v>7288</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>4167</v>
       </c>
       <c r="C9" t="s">
         <v>7317</v>
@@ -51876,10 +51987,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7285</v>
+        <v>7289</v>
       </c>
       <c r="B10" t="s">
-        <v>1525</v>
+        <v>2373</v>
       </c>
       <c r="C10" t="s">
         <v>7320</v>
@@ -51902,10 +52013,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7285</v>
+        <v>7290</v>
       </c>
       <c r="B11" t="s">
-        <v>1525</v>
+        <v>2373</v>
       </c>
       <c r="C11" t="s">
         <v>7320</v>
@@ -51928,10 +52039,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7286</v>
+        <v>7291</v>
       </c>
       <c r="B12" t="s">
-        <v>819</v>
+        <v>2373</v>
       </c>
       <c r="C12" t="s">
         <v>7319</v>
@@ -51954,10 +52065,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7286</v>
+        <v>7292</v>
       </c>
       <c r="B13" t="s">
-        <v>819</v>
+        <v>1472</v>
       </c>
       <c r="C13" t="s">
         <v>7319</v>
@@ -51980,10 +52091,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7287</v>
+        <v>7293</v>
       </c>
       <c r="B14" t="s">
-        <v>1507</v>
+        <v>1787</v>
       </c>
       <c r="C14" t="s">
         <v>7317</v>
@@ -52006,10 +52117,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7287</v>
+        <v>7294</v>
       </c>
       <c r="B15" t="s">
-        <v>1507</v>
+        <v>1763</v>
       </c>
       <c r="C15" t="s">
         <v>7317</v>
@@ -52032,10 +52143,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7288</v>
+        <v>7295</v>
       </c>
       <c r="B16" t="s">
-        <v>1820</v>
+        <v>4019</v>
       </c>
       <c r="C16" t="s">
         <v>7320</v>
@@ -52058,10 +52169,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7288</v>
+        <v>7296</v>
       </c>
       <c r="B17" t="s">
-        <v>1820</v>
+        <v>1472</v>
       </c>
       <c r="C17" t="s">
         <v>7320</v>
@@ -52084,10 +52195,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7289</v>
+        <v>7297</v>
       </c>
       <c r="B18" t="s">
-        <v>1329</v>
+        <v>2307</v>
       </c>
       <c r="C18" t="s">
         <v>7320</v>
@@ -52110,10 +52221,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7289</v>
+        <v>7298</v>
       </c>
       <c r="B19" t="s">
-        <v>1329</v>
+        <v>1498</v>
       </c>
       <c r="C19" t="s">
         <v>7320</v>
@@ -52136,10 +52247,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7290</v>
+        <v>7299</v>
       </c>
       <c r="B20" t="s">
-        <v>2066</v>
+        <v>2755</v>
       </c>
       <c r="C20" t="s">
         <v>7317</v>
@@ -52162,10 +52273,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7290</v>
+        <v>7300</v>
       </c>
       <c r="B21" t="s">
-        <v>2066</v>
+        <v>3947</v>
       </c>
       <c r="C21" t="s">
         <v>7317</v>
@@ -52188,10 +52299,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7291</v>
+        <v>7301</v>
       </c>
       <c r="B22" t="s">
-        <v>1982</v>
+        <v>3758</v>
       </c>
       <c r="C22" t="s">
         <v>7319</v>
@@ -52214,10 +52325,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7291</v>
+        <v>7302</v>
       </c>
       <c r="B23" t="s">
-        <v>1982</v>
+        <v>592</v>
       </c>
       <c r="C23" t="s">
         <v>7319</v>
@@ -52240,10 +52351,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7292</v>
+        <v>7303</v>
       </c>
       <c r="B24" t="s">
-        <v>2734</v>
+        <v>730</v>
       </c>
       <c r="C24" t="s">
         <v>7317</v>
@@ -52266,10 +52377,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7292</v>
+        <v>7304</v>
       </c>
       <c r="B25" t="s">
-        <v>2734</v>
+        <v>2421</v>
       </c>
       <c r="C25" t="s">
         <v>7317</v>
@@ -52292,10 +52403,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7293</v>
+        <v>7305</v>
       </c>
       <c r="B26" t="s">
-        <v>1062</v>
+        <v>628</v>
       </c>
       <c r="C26" t="s">
         <v>7321</v>
@@ -52318,10 +52429,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7293</v>
+        <v>7306</v>
       </c>
       <c r="B27" t="s">
-        <v>1062</v>
+        <v>407</v>
       </c>
       <c r="C27" t="s">
         <v>7321</v>
@@ -52344,10 +52455,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7294</v>
+        <v>7307</v>
       </c>
       <c r="B28" t="s">
-        <v>1269</v>
+        <v>3668</v>
       </c>
       <c r="C28" t="s">
         <v>7321</v>
@@ -52370,10 +52481,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7294</v>
+        <v>7308</v>
       </c>
       <c r="B29" t="s">
-        <v>1269</v>
+        <v>592</v>
       </c>
       <c r="C29" t="s">
         <v>7321</v>
@@ -52396,10 +52507,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7295</v>
+        <v>7309</v>
       </c>
       <c r="B30" t="s">
-        <v>940</v>
+        <v>1498</v>
       </c>
       <c r="C30" t="s">
         <v>7320</v>
@@ -52422,10 +52533,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7295</v>
+        <v>7310</v>
       </c>
       <c r="B31" t="s">
-        <v>940</v>
+        <v>730</v>
       </c>
       <c r="C31" t="s">
         <v>7320</v>
@@ -52448,10 +52559,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7296</v>
+        <v>7311</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
         <v>7317</v>
@@ -52474,10 +52585,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7296</v>
+        <v>7312</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>2868</v>
       </c>
       <c r="C33" t="s">
         <v>7317</v>
@@ -52500,10 +52611,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7297</v>
+        <v>7313</v>
       </c>
       <c r="B34" t="s">
-        <v>2505</v>
+        <v>3302</v>
       </c>
       <c r="C34" t="s">
         <v>7319</v>
@@ -52526,10 +52637,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7297</v>
+        <v>7314</v>
       </c>
       <c r="B35" t="s">
-        <v>2505</v>
+        <v>2307</v>
       </c>
       <c r="C35" t="s">
         <v>7319</v>
@@ -52552,10 +52663,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7298</v>
+        <v>7315</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>1498</v>
       </c>
       <c r="C36" t="s">
         <v>7321</v>
@@ -52578,10 +52689,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7298</v>
+        <v>7342</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>730</v>
       </c>
       <c r="C37" t="s">
         <v>7321</v>
@@ -52604,10 +52715,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7299</v>
+        <v>7343</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>1769</v>
       </c>
       <c r="C38" t="s">
         <v>7319</v>
@@ -52630,10 +52741,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7299</v>
+        <v>7344</v>
       </c>
       <c r="B39" t="s">
-        <v>309</v>
+        <v>2400</v>
       </c>
       <c r="C39" t="s">
         <v>7319</v>
@@ -52656,10 +52767,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7300</v>
+        <v>7345</v>
       </c>
       <c r="B40" t="s">
-        <v>1347</v>
+        <v>1552</v>
       </c>
       <c r="C40" t="s">
         <v>7319</v>
@@ -52682,10 +52793,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7300</v>
+        <v>7346</v>
       </c>
       <c r="B41" t="s">
-        <v>1347</v>
+        <v>3335</v>
       </c>
       <c r="C41" t="s">
         <v>7319</v>
@@ -52708,10 +52819,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7301</v>
+        <v>7347</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>2659</v>
       </c>
       <c r="C42" t="s">
         <v>7319</v>
@@ -52734,10 +52845,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7301</v>
+        <v>7348</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>3959</v>
       </c>
       <c r="C43" t="s">
         <v>7319</v>
@@ -52760,10 +52871,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7302</v>
+        <v>7349</v>
       </c>
       <c r="B44" t="s">
-        <v>777</v>
+        <v>1498</v>
       </c>
       <c r="C44" t="s">
         <v>7319</v>
@@ -52786,10 +52897,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7302</v>
-      </c>
-      <c r="B45" t="s">
-        <v>777</v>
+        <v>7350</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>1943</v>
       </c>
       <c r="C45" t="s">
         <v>7319</v>
@@ -52812,10 +52923,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7303</v>
+        <v>7351</v>
       </c>
       <c r="B46" t="s">
-        <v>2469</v>
+        <v>1934</v>
       </c>
       <c r="C46" t="s">
         <v>7319</v>
@@ -52838,10 +52949,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7303</v>
+        <v>7352</v>
       </c>
       <c r="B47" t="s">
-        <v>2469</v>
+        <v>3461</v>
       </c>
       <c r="C47" t="s">
         <v>7319</v>
@@ -52864,10 +52975,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7304</v>
+        <v>7353</v>
       </c>
       <c r="B48" t="s">
-        <v>583</v>
+        <v>1943</v>
       </c>
       <c r="C48" t="s">
         <v>7320</v>
@@ -52890,10 +53001,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7304</v>
+        <v>7354</v>
       </c>
       <c r="B49" t="s">
-        <v>583</v>
+        <v>1546</v>
       </c>
       <c r="C49" t="s">
         <v>7320</v>
@@ -52916,10 +53027,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7305</v>
+        <v>7355</v>
       </c>
       <c r="B50" t="s">
-        <v>902</v>
+        <v>2853</v>
       </c>
       <c r="C50" t="s">
         <v>7319</v>
@@ -52942,10 +53053,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7305</v>
+        <v>7356</v>
       </c>
       <c r="B51" t="s">
-        <v>902</v>
+        <v>2045</v>
       </c>
       <c r="C51" t="s">
         <v>7319</v>
@@ -52968,10 +53079,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7306</v>
+        <v>7357</v>
       </c>
       <c r="B52" t="s">
-        <v>2247</v>
+        <v>2559</v>
       </c>
       <c r="C52" t="s">
         <v>7318</v>
@@ -52994,10 +53105,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7306</v>
+        <v>7358</v>
       </c>
       <c r="B53" t="s">
-        <v>2247</v>
+        <v>2559</v>
       </c>
       <c r="C53" t="s">
         <v>7318</v>
@@ -53020,10 +53131,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7307</v>
+        <v>7359</v>
       </c>
       <c r="B54" t="s">
-        <v>1642</v>
+        <v>3575</v>
       </c>
       <c r="C54" t="s">
         <v>7320</v>
@@ -53046,10 +53157,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7307</v>
+        <v>7360</v>
       </c>
       <c r="B55" t="s">
-        <v>1642</v>
+        <v>407</v>
       </c>
       <c r="C55" t="s">
         <v>7320</v>
@@ -53072,10 +53183,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7308</v>
+        <v>7361</v>
       </c>
       <c r="B56" t="s">
-        <v>2259</v>
+        <v>2301</v>
       </c>
       <c r="C56" t="s">
         <v>7317</v>
@@ -53098,10 +53209,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7308</v>
+        <v>7362</v>
       </c>
       <c r="B57" t="s">
-        <v>2259</v>
+        <v>4092</v>
       </c>
       <c r="C57" t="s">
         <v>7317</v>
@@ -53124,10 +53235,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7309</v>
+        <v>7363</v>
       </c>
       <c r="B58" t="s">
-        <v>1166</v>
+        <v>810</v>
       </c>
       <c r="C58" t="s">
         <v>7318</v>
@@ -53150,10 +53261,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7309</v>
+        <v>7364</v>
       </c>
       <c r="B59" t="s">
-        <v>1166</v>
+        <v>2125</v>
       </c>
       <c r="C59" t="s">
         <v>7318</v>
@@ -53176,10 +53287,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7310</v>
+        <v>7365</v>
       </c>
       <c r="B60" t="s">
-        <v>1486</v>
+        <v>3434</v>
       </c>
       <c r="C60" t="s">
         <v>7321</v>
@@ -53202,10 +53313,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7310</v>
+        <v>7366</v>
       </c>
       <c r="B61" t="s">
-        <v>1486</v>
+        <v>1739</v>
       </c>
       <c r="C61" t="s">
         <v>7321</v>
@@ -53228,10 +53339,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7311</v>
+        <v>7367</v>
       </c>
       <c r="B62" t="s">
-        <v>1096</v>
+        <v>3089</v>
       </c>
       <c r="C62" t="s">
         <v>7318</v>
@@ -53254,10 +53365,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7311</v>
+        <v>7368</v>
       </c>
       <c r="B63" t="s">
-        <v>1096</v>
+        <v>2954</v>
       </c>
       <c r="C63" t="s">
         <v>7318</v>
@@ -53280,10 +53391,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7312</v>
+        <v>7369</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>3509</v>
       </c>
       <c r="C64" t="s">
         <v>7320</v>
@@ -53306,10 +53417,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7312</v>
+        <v>7370</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>3131</v>
       </c>
       <c r="C65" t="s">
         <v>7320</v>
@@ -53332,10 +53443,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7313</v>
+        <v>7371</v>
       </c>
       <c r="B66" t="s">
-        <v>2358</v>
+        <v>810</v>
       </c>
       <c r="C66" t="s">
         <v>7321</v>
@@ -53358,10 +53469,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7313</v>
+        <v>7372</v>
       </c>
       <c r="B67" t="s">
-        <v>2358</v>
+        <v>3434</v>
       </c>
       <c r="C67" t="s">
         <v>7321</v>
@@ -53384,10 +53495,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7314</v>
+        <v>7373</v>
       </c>
       <c r="B68" t="s">
-        <v>2415</v>
+        <v>2638</v>
       </c>
       <c r="C68" t="s">
         <v>7320</v>
@@ -53410,10 +53521,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7314</v>
+        <v>7374</v>
       </c>
       <c r="B69" t="s">
-        <v>2415</v>
+        <v>1365</v>
       </c>
       <c r="C69" t="s">
         <v>7320</v>
@@ -53436,10 +53547,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7315</v>
+        <v>7375</v>
       </c>
       <c r="B70" t="s">
-        <v>1919</v>
+        <v>3434</v>
       </c>
       <c r="C70" t="s">
         <v>7321</v>
@@ -53462,10 +53573,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7315</v>
+        <v>7376</v>
       </c>
       <c r="B71" t="s">
-        <v>1919</v>
+        <v>1763</v>
       </c>
       <c r="C71" t="s">
         <v>7321</v>
@@ -53487,6 +53598,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H71" xr:uid="{490A333D-2E90-4137-BA45-6ABDC41F5B28}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
